--- a/Results/Messung_1.xlsx
+++ b/Results/Messung_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leix\Desktop\HTW Dresden\SS24\Projektarbeit Vector-Network-Analyzer\Github\ProjektarbeitVNA\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9D5EFE-7D92-4DC3-9B88-6C7400A59735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1532ED8-96C8-4930-B095-34FEFCD53079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DF47B0C-A978-4F05-B952-D0AA6443CC66}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="151">
   <si>
     <t>Column1</t>
   </si>
@@ -484,6 +484,21 @@
   </si>
   <si>
     <t>Column19</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Column20</t>
+  </si>
+  <si>
+    <t>Column21</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Column22</t>
   </si>
 </sst>
 </file>
@@ -533,7 +548,16 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -606,8 +630,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{D018249E-C432-41D3-9DD2-E1F1F5E1985D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="20" unboundColumnsRight="6">
-    <queryTableFields count="19">
+  <queryTableRefresh nextId="23" unboundColumnsRight="9">
+    <queryTableFields count="22">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
@@ -627,34 +651,42 @@
       <queryTableField id="17" dataBound="0" tableColumnId="17"/>
       <queryTableField id="18" dataBound="0" tableColumnId="18"/>
       <queryTableField id="19" dataBound="0" tableColumnId="19"/>
+      <queryTableField id="20" dataBound="0" tableColumnId="20"/>
+      <queryTableField id="21" dataBound="0" tableColumnId="21"/>
+      <queryTableField id="22" dataBound="0" tableColumnId="22"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EC89DF7-4C44-490D-B1DE-9FCED3F29528}" name="Recording_2024_03_20_11_04_45_008" displayName="Recording_2024_03_20_11_04_45_008" ref="A1:S107" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:S107" xr:uid="{4EC89DF7-4C44-490D-B1DE-9FCED3F29528}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{42CBD675-AAB9-4F09-AA93-B6CE394C47C7}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A6E15562-5ED0-470A-8283-87552CCCDACE}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{B99872F9-5086-4D6A-849E-8227D322FD54}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{355F2E21-2E08-47B1-8613-B6829B47BABB}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{CCF69F33-5538-472D-A0EE-38F75963AA68}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{49A7E8DB-FE53-4D5A-A318-F9A7373D2A3F}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{B9A9D0DB-525A-4589-A43E-7B80678413F6}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{34BB2887-EC24-4EFB-9CC1-6980BE5B4731}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{4B83690E-D1F3-4FA5-8E23-E6BCAD25C9B0}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{65A09C05-F1C5-46AE-A5F2-D6EA303F371A}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{66C36DD4-AE74-4D0E-9ADF-F353043EA371}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{9114EA1E-3F6B-4876-B243-7F92B453D056}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{587685A4-429D-4E8F-AB09-CE8A329B798F}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{FC0BCAB7-7FD9-4FE2-A589-4106DEBB3305}" uniqueName="14" name="Column14" queryTableFieldId="14" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{26906682-6D14-4B0F-A035-5612D4D8FFEF}" uniqueName="15" name="Column15" queryTableFieldId="15" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{F42B9596-2C3A-4885-B198-5FA73BEA674A}" uniqueName="16" name="Column16" queryTableFieldId="16" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{519593D6-CCD8-41F5-90E8-6713C40ED7E9}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{CBE51AFD-286D-4D9D-AF30-432320A2E0B6}" uniqueName="18" name="Column18" queryTableFieldId="18" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{4B8056E5-8C25-4C13-AF4F-D841B411FD2E}" uniqueName="19" name="Column19" queryTableFieldId="19" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EC89DF7-4C44-490D-B1DE-9FCED3F29528}" name="Recording_2024_03_20_11_04_45_008" displayName="Recording_2024_03_20_11_04_45_008" ref="A1:V107" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:V107" xr:uid="{4EC89DF7-4C44-490D-B1DE-9FCED3F29528}"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{42CBD675-AAB9-4F09-AA93-B6CE394C47C7}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{A6E15562-5ED0-470A-8283-87552CCCDACE}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{B99872F9-5086-4D6A-849E-8227D322FD54}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{355F2E21-2E08-47B1-8613-B6829B47BABB}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{CCF69F33-5538-472D-A0EE-38F75963AA68}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{49A7E8DB-FE53-4D5A-A318-F9A7373D2A3F}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{B9A9D0DB-525A-4589-A43E-7B80678413F6}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{34BB2887-EC24-4EFB-9CC1-6980BE5B4731}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{4B83690E-D1F3-4FA5-8E23-E6BCAD25C9B0}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{65A09C05-F1C5-46AE-A5F2-D6EA303F371A}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{66C36DD4-AE74-4D0E-9ADF-F353043EA371}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{9114EA1E-3F6B-4876-B243-7F92B453D056}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{587685A4-429D-4E8F-AB09-CE8A329B798F}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{FC0BCAB7-7FD9-4FE2-A589-4106DEBB3305}" uniqueName="14" name="Column14" queryTableFieldId="14" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{26906682-6D14-4B0F-A035-5612D4D8FFEF}" uniqueName="15" name="Column15" queryTableFieldId="15" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{F42B9596-2C3A-4885-B198-5FA73BEA674A}" uniqueName="16" name="Column16" queryTableFieldId="16" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{519593D6-CCD8-41F5-90E8-6713C40ED7E9}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{CBE51AFD-286D-4D9D-AF30-432320A2E0B6}" uniqueName="18" name="Column18" queryTableFieldId="18" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{4B8056E5-8C25-4C13-AF4F-D841B411FD2E}" uniqueName="19" name="Column19" queryTableFieldId="19" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{E11A0A25-BDD5-4C7C-BF6D-BCCDFCAE24FE}" uniqueName="20" name="Column20" queryTableFieldId="20" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{E5D48F10-D519-49A8-BC7B-435C85C352A8}" uniqueName="21" name="Column21" queryTableFieldId="21" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{F30512E2-D4B7-4C14-8ADD-1269D042E011}" uniqueName="22" name="Column22" queryTableFieldId="22" dataDxfId="0">
+      <calculatedColumnFormula>10*LOG10(10*(Recording_2024_03_20_11_04_45_008[[#This Row],[Column20]]^2+Recording_2024_03_20_11_04_45_008[[#This Row],[Column21]]^2))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -957,15 +989,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A40E29-3462-444D-9C3D-57A353C95B24}">
-  <dimension ref="A1:S107"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
@@ -975,7 +1007,7 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,8 +1065,17 @@
       <c r="S1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U1" t="s">
+        <v>148</v>
+      </c>
+      <c r="V1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1080,8 +1121,11 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1127,8 +1171,11 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1174,8 +1221,11 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1233,8 +1283,11 @@
       <c r="S5" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1292,8 +1345,15 @@
       <c r="S6" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1338,8 +1398,8 @@
         <v>8.3802741212499991E-7</v>
       </c>
       <c r="O7" s="1">
-        <f>(Recording_2024_03_20_11_04_45_008[[#This Row],[Column4]]^2+Recording_2024_03_20_11_04_45_008[[#This Row],[Column5]]^2)/100*40</f>
-        <v>7.3064441406798415E-3</v>
+        <f>10*LOG10(10*(Recording_2024_03_20_11_04_45_008[[#This Row],[Column4]]^2+Recording_2024_03_20_11_04_45_008[[#This Row],[Column5]]^2))</f>
+        <v>-7.3835392296154474</v>
       </c>
       <c r="P7" s="1">
         <f>10*LOG(10*(Recording_2024_03_20_11_04_45_008[[#This Row],[Column4]]^2+Recording_2024_03_20_11_04_45_008[[#This Row],[Column5]]^2))</f>
@@ -1351,8 +1411,18 @@
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="U7" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <f>10*LOG10(10*(Recording_2024_03_20_11_04_45_008[[#This Row],[Column20]]^2+Recording_2024_03_20_11_04_45_008[[#This Row],[Column21]]^2))</f>
+        <v>-0.87730104605085013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1393,8 +1463,8 @@
         <v>-1.7451399999999999E-2</v>
       </c>
       <c r="N8" s="1">
-        <f>10*LOG10(10*(Recording_2024_03_20_11_04_45_008[[#This Row],[Column2]]^2+Recording_2024_03_20_11_04_45_008[[#This Row],[Column3]]^2))</f>
-        <v>-30.222566889912489</v>
+        <f>10*LOG10(10*(V7^2+U7^2))</f>
+        <v>8.8971681588878706</v>
       </c>
       <c r="O8" s="1">
         <f>10*LOG10(10*(Recording_2024_03_20_11_04_45_008[[#This Row],[Column4]]^2+Recording_2024_03_20_11_04_45_008[[#This Row],[Column5]]^2))</f>
@@ -1407,8 +1477,11 @@
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1463,8 +1536,11 @@
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1519,8 +1595,11 @@
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1575,8 +1654,11 @@
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1631,8 +1713,11 @@
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1687,8 +1772,11 @@
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1743,8 +1831,11 @@
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1799,8 +1890,11 @@
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1855,8 +1949,11 @@
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1911,8 +2008,11 @@
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1967,8 +2067,11 @@
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2023,8 +2126,11 @@
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -2079,8 +2185,11 @@
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2135,8 +2244,11 @@
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -2191,8 +2303,11 @@
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -2247,8 +2362,11 @@
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -2303,8 +2421,11 @@
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -2359,8 +2480,11 @@
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -2415,8 +2539,11 @@
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -2471,8 +2598,11 @@
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -2527,8 +2657,11 @@
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -2583,8 +2716,11 @@
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -2639,8 +2775,11 @@
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2695,8 +2834,11 @@
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -2751,8 +2893,11 @@
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -2807,8 +2952,11 @@
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -2863,8 +3011,11 @@
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
@@ -2919,8 +3070,11 @@
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
@@ -2975,8 +3129,11 @@
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -3031,8 +3188,11 @@
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
@@ -3087,8 +3247,11 @@
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
@@ -3143,8 +3306,11 @@
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -3199,8 +3365,11 @@
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
@@ -3255,8 +3424,11 @@
       </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -3311,8 +3483,11 @@
       </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
@@ -3367,8 +3542,11 @@
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
@@ -3423,8 +3601,11 @@
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -3479,8 +3660,11 @@
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>71</v>
       </c>
@@ -3535,8 +3719,11 @@
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>72</v>
       </c>
@@ -3591,8 +3778,11 @@
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>73</v>
       </c>
@@ -3647,8 +3837,11 @@
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>74</v>
       </c>
@@ -3703,8 +3896,11 @@
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>75</v>
       </c>
@@ -3759,8 +3955,11 @@
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>76</v>
       </c>
@@ -3815,8 +4014,11 @@
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>77</v>
       </c>
@@ -3871,8 +4073,11 @@
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>78</v>
       </c>
@@ -3927,8 +4132,11 @@
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>79</v>
       </c>
@@ -3983,8 +4191,11 @@
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>80</v>
       </c>
@@ -4039,8 +4250,11 @@
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>81</v>
       </c>
@@ -4095,8 +4309,11 @@
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -4151,8 +4368,11 @@
       </c>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>83</v>
       </c>
@@ -4207,8 +4427,11 @@
       </c>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>84</v>
       </c>
@@ -4263,8 +4486,11 @@
       </c>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>85</v>
       </c>
@@ -4319,8 +4545,11 @@
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>86</v>
       </c>
@@ -4375,8 +4604,11 @@
       </c>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>87</v>
       </c>
@@ -4431,8 +4663,11 @@
       </c>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>88</v>
       </c>
@@ -4487,8 +4722,11 @@
       </c>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
@@ -4543,8 +4781,11 @@
       </c>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>90</v>
       </c>
@@ -4599,8 +4840,11 @@
       </c>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
@@ -4655,8 +4899,11 @@
       </c>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>92</v>
       </c>
@@ -4711,8 +4958,11 @@
       </c>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>93</v>
       </c>
@@ -4767,8 +5017,11 @@
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>94</v>
       </c>
@@ -4823,8 +5076,11 @@
       </c>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>95</v>
       </c>
@@ -4879,8 +5135,11 @@
       </c>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>96</v>
       </c>
@@ -4935,8 +5194,11 @@
       </c>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
@@ -4991,8 +5253,11 @@
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>98</v>
       </c>
@@ -5047,8 +5312,11 @@
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>99</v>
       </c>
@@ -5103,8 +5371,11 @@
       </c>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>100</v>
       </c>
@@ -5159,8 +5430,11 @@
       </c>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>101</v>
       </c>
@@ -5215,8 +5489,11 @@
       </c>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>102</v>
       </c>
@@ -5271,8 +5548,11 @@
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>103</v>
       </c>
@@ -5327,8 +5607,11 @@
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>104</v>
       </c>
@@ -5383,8 +5666,11 @@
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>105</v>
       </c>
@@ -5439,8 +5725,11 @@
       </c>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>106</v>
       </c>
@@ -5495,8 +5784,11 @@
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>107</v>
       </c>
@@ -5551,8 +5843,11 @@
       </c>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>108</v>
       </c>
@@ -5607,8 +5902,11 @@
       </c>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>109</v>
       </c>
@@ -5663,8 +5961,11 @@
       </c>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>110</v>
       </c>
@@ -5719,8 +6020,11 @@
       </c>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>111</v>
       </c>
@@ -5775,8 +6079,11 @@
       </c>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>112</v>
       </c>
@@ -5831,8 +6138,11 @@
       </c>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>113</v>
       </c>
@@ -5887,8 +6197,11 @@
       </c>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>114</v>
       </c>
@@ -5943,8 +6256,11 @@
       </c>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>115</v>
       </c>
@@ -5999,8 +6315,11 @@
       </c>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>116</v>
       </c>
@@ -6055,8 +6374,11 @@
       </c>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>117</v>
       </c>
@@ -6111,8 +6433,11 @@
       </c>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>118</v>
       </c>
@@ -6167,8 +6492,11 @@
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>119</v>
       </c>
@@ -6223,8 +6551,11 @@
       </c>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>120</v>
       </c>
@@ -6279,8 +6610,11 @@
       </c>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>121</v>
       </c>
@@ -6335,8 +6669,11 @@
       </c>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>122</v>
       </c>
@@ -6391,8 +6728,11 @@
       </c>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>123</v>
       </c>
@@ -6447,8 +6787,11 @@
       </c>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>124</v>
       </c>
@@ -6503,8 +6846,11 @@
       </c>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>125</v>
       </c>
@@ -6559,8 +6905,11 @@
       </c>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>126</v>
       </c>
@@ -6615,8 +6964,11 @@
       </c>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>127</v>
       </c>
@@ -6671,8 +7023,11 @@
       </c>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>128</v>
       </c>
@@ -6727,8 +7082,11 @@
       </c>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>129</v>
       </c>
@@ -6783,8 +7141,11 @@
       </c>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>130</v>
       </c>
@@ -6839,8 +7200,11 @@
       </c>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>131</v>
       </c>
@@ -6895,8 +7259,11 @@
       </c>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>132</v>
       </c>
@@ -6951,6 +7318,9 @@
       </c>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
